--- a/Python_Krunal-Lodd_Manipal-Institute-of-Technology.xlsx
+++ b/Python_Krunal-Lodd_Manipal-Institute-of-Technology.xlsx
@@ -40,154 +40,154 @@
     <t>Words</t>
   </si>
   <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>Tolstoy</t>
-  </si>
-  <si>
-    <t>characters</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>believe</t>
-  </si>
-  <si>
-    <t>candidate</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>emphasis</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>encourage</t>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>himself</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>assessed</t>
-  </si>
-  <si>
-    <t>complier</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>ranking</t>
-  </si>
-  <si>
-    <t>Download</t>
-  </si>
-  <si>
-    <t>gutenbergorg</t>
-  </si>
-  <si>
-    <t>descending</t>
-  </si>
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>execute</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>describe</t>
-  </si>
-  <si>
-    <t>aspects</t>
-  </si>
-  <si>
-    <t>flexible</t>
-  </si>
-  <si>
-    <t>improved,</t>
-  </si>
-  <si>
-    <t>possibly</t>
-  </si>
-  <si>
-    <t>efficient</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>validate</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>cloud-based</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>responses</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>programming</t>
-  </si>
-  <si>
-    <t>examples</t>
+    <t>without</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>Emperor</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Kutuzov</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>CHAPTER</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>evidently</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>replied</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>Pierre,</t>
+  </si>
+  <si>
+    <t>Denisov</t>
+  </si>
+  <si>
+    <t>herself</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>countess</t>
+  </si>
+  <si>
+    <t>soldiers</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>Natasha,</t>
+  </si>
+  <si>
+    <t>princess</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>Dolokhov</t>
+  </si>
+  <si>
+    <t>shouted</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>drawing</t>
+  </si>
+  <si>
+    <t>entered</t>
+  </si>
+  <si>
+    <t>Andrew,</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>Petersburg</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
 </sst>
 </file>
